--- a/biology/Zoologie/Conus_visagenus/Conus_visagenus.xlsx
+++ b/biology/Zoologie/Conus_visagenus/Conus_visagenus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus visagenus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 17 mm et 32 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large de l'Afrique du Sud.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est endémique à l'Afrique du Sud, et se trouve de Coffee Bay à Durban. Cette espèce est limitée dans son aire de répartition et est intrinsèquement rare dans la nature, mais n'est actuellement confrontée à aucune menace. Elle a un habitat en eau profonde et bénéficie de la protection d'une législation stricte sur le dragage au Natal. Elle a donc été classée dans la catégorie "préoccupation mineure"[1].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est endémique à l'Afrique du Sud, et se trouve de Coffee Bay à Durban. Cette espèce est limitée dans son aire de répartition et est intrinsèquement rare dans la nature, mais n'est actuellement confrontée à aucune menace. Elle a un habitat en eau profonde et bénéficie de la protection d'une législation stricte sur le dragage au Natal. Elle a donc été classée dans la catégorie "préoccupation mineure".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_visagenus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_visagenus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus visagenus a été décrite pour la première fois en 1974 par le malacologiste sud-africain Richard Neil Kilburn (d)[2],[3].
-Synonymes
-Conus (Plicaustraconus) visagenus Kilburn, 1974 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus visagenus a été décrite pour la première fois en 1974 par le malacologiste sud-africain Richard Neil Kilburn (d),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_visagenus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_visagenus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Plicaustraconus) visagenus Kilburn, 1974 · appellation alternative
 Conus (Rhizoconus) visagenus Kilburn, 1974 · non accepté
 Pictoconus visagenus (Kilburn, 1974) · non accepté
 Plicaustraconus visagenus (Kilburn, 1974) · non accepté</t>
